--- a/调查问卷原始数据.xlsx
+++ b/调查问卷原始数据.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="原始数据_202410221715_0" sheetId="1" r:id="rId1"/>
+    <sheet name="原始数据_202410221820_0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="163">
   <si>
     <t>答题序号</t>
   </si>
@@ -100,6 +100,9 @@
     <t>填空1:男|填空2:23</t>
   </si>
   <si>
+    <t>填空1:男|填空2:20</t>
+  </si>
+  <si>
     <t>C.5-10次</t>
   </si>
   <si>
@@ -139,6 +142,12 @@
     <t>A.体重管理|B.心理健康</t>
   </si>
   <si>
+    <t>C.睡眠改善</t>
+  </si>
+  <si>
+    <t>A.体重管理|B.心理健康|C.睡眠改善</t>
+  </si>
+  <si>
     <t>A.工作时间过长，没时间锻炼|D.对健康生活方式了解过少</t>
   </si>
   <si>
@@ -169,6 +178,9 @@
     <t>A.智能手环/手表|B.健康APP（如Keep、MyFitnessPal）</t>
   </si>
   <si>
+    <t>A.智能手环/手表|B.健康APP（如Keep、MyFitnessPal）|C.远程医疗服务|D.家庭健康监测设备</t>
+  </si>
+  <si>
     <t>A.是</t>
   </si>
   <si>
@@ -196,6 +208,9 @@
     <t>A.基于个人数据的定制化饮食建议</t>
   </si>
   <si>
+    <t>B.个性化运动计划</t>
+  </si>
+  <si>
     <t>A.没有</t>
   </si>
   <si>
@@ -223,6 +238,9 @@
     <t>功能更完善一点</t>
   </si>
   <si>
+    <t>可以更流畅一点</t>
+  </si>
+  <si>
     <t>B.一般重要</t>
   </si>
   <si>
@@ -247,6 +265,9 @@
     <t>A.分享健康经验|B.寻找健康伙伴|C.获取专业指导|D.参与挑战活动</t>
   </si>
   <si>
+    <t>A.分享健康经验|B.寻找健康伙伴</t>
+  </si>
+  <si>
     <t>A.评论区留言|B.私信聊天</t>
   </si>
   <si>
@@ -319,6 +340,12 @@
     <t>2024-10-22 17:14:01</t>
   </si>
   <si>
+    <t>2024-10-22 17:41:16</t>
+  </si>
+  <si>
+    <t>2024-10-22 18:10:58</t>
+  </si>
+  <si>
     <t>2024-10-22 15:07:14</t>
   </si>
   <si>
@@ -349,6 +376,12 @@
     <t>2024-10-22 17:14:45</t>
   </si>
   <si>
+    <t>2024-10-22 17:44:50</t>
+  </si>
+  <si>
+    <t>2024-10-22 18:11:36</t>
+  </si>
+  <si>
     <t>2分39秒</t>
   </si>
   <si>
@@ -379,6 +412,12 @@
     <t>0分44秒</t>
   </si>
   <si>
+    <t>3分34秒</t>
+  </si>
+  <si>
+    <t>0分38秒</t>
+  </si>
+  <si>
     <t>山东省</t>
   </si>
   <si>
@@ -394,6 +433,9 @@
     <t>潍坊市</t>
   </si>
   <si>
+    <t>滨州市</t>
+  </si>
+  <si>
     <t>223.104.194.87</t>
   </si>
   <si>
@@ -424,6 +466,12 @@
     <t>144.12.155.123</t>
   </si>
   <si>
+    <t>39.144.109.96</t>
+  </si>
+  <si>
+    <t>112.224.155.13</t>
+  </si>
+  <si>
     <t>Chrome 126.0.6478.188</t>
   </si>
   <si>
@@ -436,6 +484,9 @@
     <t>Chrome 107.0.5304.141</t>
   </si>
   <si>
+    <t>Chrome 86.0.4240.99</t>
+  </si>
+  <si>
     <t>Android Linux 14</t>
   </si>
   <si>
@@ -446,6 +497,12 @@
   </si>
   <si>
     <t>iPhone iOS 16.2</t>
+  </si>
+  <si>
+    <t>Android Linux 10</t>
+  </si>
+  <si>
+    <t>iPhone iOS 18.0.1</t>
   </si>
 </sst>
 </file>
@@ -803,7 +860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -894,70 +951,70 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="R2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="S2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="T2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="U2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="V2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="W2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="X2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="Y2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -968,70 +1025,70 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="Q3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="R3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="S3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="T3" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="U3" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="V3" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="W3" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="X3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="Y3" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1042,70 +1099,70 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="Q4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="S4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="T4" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="U4" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="V4" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="W4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="X4" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Y4" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1116,70 +1173,70 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="R5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="S5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="T5" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="U5" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="V5" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="W5" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="X5" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="Y5" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1190,70 +1247,70 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
         <v>56</v>
       </c>
-      <c r="K6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="Q6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="R6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="S6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="T6" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="U6" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="V6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="W6" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="X6" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="Y6" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1264,70 +1321,70 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="R7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="S7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="T7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="U7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="V7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="W7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="X7" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="Y7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1338,70 +1395,70 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="R8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="S8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="T8" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="U8" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="V8" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="W8" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="X8" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="Y8" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1412,70 +1469,70 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="Q9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="R9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="S9" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="T9" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="U9" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="V9" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="W9" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="X9" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="Y9" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1486,70 +1543,70 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="Q10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="R10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="S10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="T10" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="U10" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="V10" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="W10" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="X10" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="Y10" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1560,70 +1617,218 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" t="s">
+        <v>107</v>
+      </c>
+      <c r="S11" t="s">
+        <v>119</v>
+      </c>
+      <c r="T11" t="s">
+        <v>131</v>
+      </c>
+      <c r="U11" t="s">
+        <v>134</v>
+      </c>
+      <c r="V11" t="s">
+        <v>137</v>
+      </c>
+      <c r="W11" t="s">
+        <v>149</v>
+      </c>
+      <c r="X11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>97</v>
+      </c>
+      <c r="R12" t="s">
+        <v>108</v>
+      </c>
+      <c r="S12" t="s">
+        <v>120</v>
+      </c>
+      <c r="T12" t="s">
+        <v>132</v>
+      </c>
+      <c r="U12" t="s">
+        <v>134</v>
+      </c>
+      <c r="V12" t="s">
+        <v>139</v>
+      </c>
+      <c r="W12" t="s">
+        <v>150</v>
+      </c>
+      <c r="X12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>89</v>
-      </c>
-      <c r="R11" t="s">
-        <v>100</v>
-      </c>
-      <c r="S11" t="s">
-        <v>110</v>
-      </c>
-      <c r="T11" t="s">
-        <v>120</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>96</v>
+      </c>
+      <c r="R13" t="s">
+        <v>109</v>
+      </c>
+      <c r="S13" t="s">
         <v>121</v>
       </c>
-      <c r="V11" t="s">
-        <v>124</v>
-      </c>
-      <c r="W11" t="s">
-        <v>135</v>
-      </c>
-      <c r="X11" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>143</v>
+      <c r="T13" t="s">
+        <v>133</v>
+      </c>
+      <c r="U13" t="s">
+        <v>134</v>
+      </c>
+      <c r="V13" t="s">
+        <v>136</v>
+      </c>
+      <c r="W13" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
